--- a/game/data.xlsx
+++ b/game/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="175">
   <si>
     <t>城镇高速公路</t>
   </si>
@@ -81,13 +81,13 @@
     <t>野外修炼馆</t>
   </si>
   <si>
-    <t>138.65</t>
+    <t>136.59</t>
   </si>
   <si>
     <t>里约滑坡</t>
   </si>
   <si>
-    <t>113.71</t>
+    <t>113.11</t>
   </si>
   <si>
     <t>恐龙决斗场</t>
@@ -135,7 +135,7 @@
     <t>龙之遗迹</t>
   </si>
   <si>
-    <t>149.20</t>
+    <t>148.41</t>
   </si>
   <si>
     <t>万里长城</t>
@@ -147,7 +147,7 @@
     <t>海盗绝壁海湾</t>
   </si>
   <si>
-    <t>203.31</t>
+    <t>202.33</t>
   </si>
   <si>
     <t>海底神殿</t>
@@ -189,7 +189,7 @@
     <t>海盗宝藏迷宫</t>
   </si>
   <si>
-    <t>215.37</t>
+    <t>214.99</t>
   </si>
   <si>
     <t>城镇公路</t>
@@ -201,25 +201,25 @@
     <t>黄金坐标</t>
   </si>
   <si>
-    <t>153.00</t>
+    <t>147.17</t>
   </si>
   <si>
     <t>秘密机关的威胁</t>
   </si>
   <si>
-    <t>205.00</t>
+    <t>205.99</t>
   </si>
   <si>
     <t>冰峰裂谷</t>
   </si>
   <si>
-    <t>145.00</t>
+    <t>145.94</t>
   </si>
   <si>
     <t>圣诞秘密空间</t>
   </si>
   <si>
-    <t>143.95</t>
+    <t>143.94</t>
   </si>
   <si>
     <t>彩虹之门</t>
@@ -237,22 +237,25 @@
     <t>矿山曲折滑坡</t>
   </si>
   <si>
-    <t>124.00</t>
+    <t>124.31</t>
   </si>
   <si>
     <t>未完成的第五区</t>
   </si>
   <si>
+    <t>124.41</t>
+  </si>
+  <si>
     <t>森林崎岖下山道</t>
   </si>
   <si>
-    <t>149.00</t>
+    <t>149.24</t>
   </si>
   <si>
     <t>幽暗峡谷</t>
   </si>
   <si>
-    <t>201.00</t>
+    <t>201.67</t>
   </si>
   <si>
     <t>冰山滑雪场</t>
@@ -889,31 +892,31 @@
         <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -934,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
@@ -954,19 +957,19 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -974,19 +977,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
@@ -994,19 +997,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -1014,19 +1017,19 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -1034,19 +1037,19 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
@@ -1054,19 +1057,19 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
@@ -1074,19 +1077,19 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1094,19 +1097,19 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -1114,19 +1117,19 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -1134,19 +1137,19 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
@@ -1154,19 +1157,19 @@
         <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -1174,19 +1177,19 @@
         <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
@@ -1194,19 +1197,19 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -1214,19 +1217,19 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
@@ -1234,19 +1237,19 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
@@ -1254,19 +1257,19 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
@@ -1274,19 +1277,19 @@
         <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19">
@@ -1294,19 +1297,19 @@
         <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20">
@@ -1314,19 +1317,19 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1347,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
@@ -1367,19 +1370,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
         <v>137</v>
       </c>
-      <c r="C2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>136</v>
-      </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -1387,19 +1390,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -1407,19 +1410,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
@@ -1427,19 +1430,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
@@ -1447,19 +1450,19 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -1467,19 +1470,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -1487,19 +1490,19 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1507,19 +1510,19 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" t="s">
         <v>145</v>
-      </c>
-      <c r="D9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10">
@@ -1527,19 +1530,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
@@ -1547,19 +1550,19 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -1567,19 +1570,19 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -1587,19 +1590,19 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" t="s">
         <v>137</v>
-      </c>
-      <c r="E13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14">
@@ -1607,19 +1610,19 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
@@ -1627,19 +1630,19 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -1647,19 +1650,19 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1670,19 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
@@ -1687,19 +1690,19 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
@@ -1707,19 +1710,19 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -1727,19 +1730,19 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -1747,19 +1750,19 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22">
@@ -1767,19 +1770,19 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
@@ -1787,19 +1790,19 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24">
@@ -1807,19 +1810,19 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25">
@@ -1827,19 +1830,19 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26">
@@ -1847,19 +1850,19 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
@@ -1867,19 +1870,19 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -1887,19 +1890,19 @@
         <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29">
@@ -1907,19 +1910,19 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -1927,19 +1930,19 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31">
@@ -1947,19 +1950,19 @@
         <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -1967,19 +1970,19 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -1987,59 +1990,59 @@
         <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2060,19 +2063,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
@@ -2080,19 +2083,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -2100,19 +2103,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -2120,19 +2123,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2143,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6">
@@ -2160,19 +2163,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -2180,19 +2183,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -2200,19 +2203,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -2220,19 +2223,19 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" t="s">
         <v>137</v>
-      </c>
-      <c r="E9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="10">
@@ -2240,19 +2243,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -2260,19 +2263,19 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
@@ -2280,19 +2283,19 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -2300,19 +2303,19 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" t="s">
         <v>137</v>
-      </c>
-      <c r="E13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14">
@@ -2320,19 +2323,19 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
@@ -2340,19 +2343,19 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -2360,19 +2363,19 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -2380,19 +2383,19 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -2400,19 +2403,19 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -2420,19 +2423,19 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
@@ -2440,19 +2443,19 @@
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
@@ -2460,19 +2463,19 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
@@ -2480,19 +2483,19 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -2500,19 +2503,19 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -2520,19 +2523,19 @@
         <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25">
@@ -2540,19 +2543,19 @@
         <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2563,19 @@
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27">
@@ -2580,19 +2583,19 @@
         <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -2600,19 +2603,19 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29">
@@ -2620,19 +2623,19 @@
         <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
@@ -2640,19 +2643,19 @@
         <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -2660,19 +2663,19 @@
         <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -2680,19 +2683,19 @@
         <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -2700,19 +2703,19 @@
         <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34">
@@ -2720,19 +2723,19 @@
         <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35">
@@ -2740,79 +2743,79 @@
         <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
         <v>132</v>
-      </c>
-      <c r="D35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2833,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
@@ -2853,19 +2856,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -2873,19 +2876,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -2893,19 +2896,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
@@ -2913,19 +2916,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6">
@@ -2933,19 +2936,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -2953,19 +2956,19 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8">
@@ -2973,19 +2976,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -2993,19 +2996,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -3013,19 +3016,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -3033,19 +3036,19 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -3053,19 +3056,19 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -3073,19 +3076,19 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -3093,19 +3096,19 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" t="s">
         <v>137</v>
-      </c>
-      <c r="E14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="15">
@@ -3113,19 +3116,19 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -3133,19 +3136,19 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
@@ -3153,19 +3156,19 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -3173,19 +3176,19 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19">
@@ -3193,19 +3196,19 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20">
@@ -3213,19 +3216,19 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
@@ -3233,19 +3236,19 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -3253,19 +3256,19 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -3273,19 +3276,19 @@
         <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24">
@@ -3293,19 +3296,19 @@
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
@@ -3313,19 +3316,19 @@
         <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -3333,19 +3336,19 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -3353,19 +3356,19 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -3373,19 +3376,19 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -3393,19 +3396,19 @@
         <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -3413,19 +3416,19 @@
         <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31">
@@ -3433,19 +3436,19 @@
         <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
@@ -3453,19 +3456,19 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
@@ -3473,19 +3476,19 @@
         <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -3493,19 +3496,19 @@
         <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -3513,19 +3516,19 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -3533,19 +3536,19 @@
         <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37">
@@ -3553,19 +3556,19 @@
         <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38">
@@ -3573,79 +3576,79 @@
         <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" t="s">
         <v>132</v>
-      </c>
-      <c r="E38" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/game/data.xlsx
+++ b/game/data.xlsx
@@ -123,7 +123,7 @@
     <t>神秘研究所</t>
   </si>
   <si>
-    <t>216.28</t>
+    <t>214.21</t>
   </si>
   <si>
     <t>玩具工厂</t>
